--- a/prototype_v1/Professor-View/proposed_database.xlsx
+++ b/prototype_v1/Professor-View/proposed_database.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owenbezick/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owenbezick/Documents/GitHub/Standards-Based-Gradebook/prototype_v1/Professor-View/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB0C731-90AC-2143-934F-2F0FFCA22780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC19FB89-708A-504F-AA20-0B57F4CC7047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{97245970-16B9-F943-8B5D-90F64B1B86E5}"/>
+    <workbookView xWindow="36960" yWindow="-1400" windowWidth="35840" windowHeight="19280" activeTab="4" xr2:uid="{97245970-16B9-F943-8B5D-90F64B1B86E5}"/>
   </bookViews>
   <sheets>
     <sheet name="student_def" sheetId="1" r:id="rId1"/>
-    <sheet name="exam_def" sheetId="2" r:id="rId2"/>
-    <sheet name="exam_grade" sheetId="4" r:id="rId3"/>
-    <sheet name="homework_def" sheetId="5" r:id="rId4"/>
-    <sheet name="homework_grade" sheetId="3" r:id="rId5"/>
+    <sheet name="homework_def" sheetId="5" r:id="rId2"/>
+    <sheet name="homework_grade" sheetId="3" r:id="rId3"/>
+    <sheet name="topic_table" sheetId="8" r:id="rId4"/>
+    <sheet name="exam_table" sheetId="6" r:id="rId5"/>
+    <sheet name="exam_table_1" sheetId="7" r:id="rId6"/>
+    <sheet name="exam_grade_ls" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>first</t>
   </si>
@@ -66,12 +68,6 @@
     <t>exam_id</t>
   </si>
   <si>
-    <t>first_topic</t>
-  </si>
-  <si>
-    <t>last_topic</t>
-  </si>
-  <si>
     <t>student_id</t>
   </si>
   <si>
@@ -103,6 +99,30 @@
   </si>
   <si>
     <t>Homework 1</t>
+  </si>
+  <si>
+    <t>topic_1</t>
+  </si>
+  <si>
+    <t>date_assigned</t>
+  </si>
+  <si>
+    <t>date_due</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>topic_n</t>
+  </si>
+  <si>
+    <t>topics_included</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Na</t>
   </si>
 </sst>
 </file>
@@ -138,9 +158,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55727B00-70ED-F347-9C31-D386A90CF834}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -465,7 +486,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -513,62 +534,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C741E638-D53C-FA4D-A7F1-623A5C62D6D7}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19624AA7-899E-5541-B5F9-FDF19EC667B4}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G42" activeCellId="1" sqref="E5 G42"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43946</v>
       </c>
       <c r="D2" s="1">
-        <v>43939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D4" s="1"/>
+        <v>43951</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -576,411 +583,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7160915-7DF8-274F-A689-73EC86E1B805}">
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19624AA7-899E-5541-B5F9-FDF19EC667B4}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43946</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EEED98-0BB1-4C45-A7D2-4ED9FB0359AA}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -995,46 +597,599 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677045FF-C6BC-224F-9259-8BDB37C17412}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64291FD2-7764-8F4F-AB6D-94E6DBEDE67E}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>85</v>
+      <c r="B2" s="2">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43860</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>123456</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757CE549-1797-7449-BECC-C565F24C4D93}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7160915-7DF8-274F-A689-73EC86E1B805}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
